--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col18a1</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col18a1</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H2">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I2">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J2">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>84.81028676757846</v>
+        <v>65.18768030393522</v>
       </c>
       <c r="R2">
-        <v>763.2925809082061</v>
+        <v>586.689122735417</v>
       </c>
       <c r="S2">
-        <v>0.01691524305851023</v>
+        <v>0.01395819958090179</v>
       </c>
       <c r="T2">
-        <v>0.02225394121917977</v>
+        <v>0.01679425943743839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H3">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I3">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J3">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>691.3535603234637</v>
+        <v>1061.422667456473</v>
       </c>
       <c r="R3">
-        <v>6222.182042911173</v>
+        <v>9552.804007108258</v>
       </c>
       <c r="S3">
-        <v>0.1378890929149456</v>
+        <v>0.227275297463779</v>
       </c>
       <c r="T3">
-        <v>0.1814089078046906</v>
+        <v>0.2734536275401996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H4">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I4">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J4">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>186.6113570524522</v>
+        <v>341.1279612453744</v>
       </c>
       <c r="R4">
-        <v>1679.50221347207</v>
+        <v>3070.151651208369</v>
       </c>
       <c r="S4">
-        <v>0.03721926410496908</v>
+        <v>0.07304343617518823</v>
       </c>
       <c r="T4">
-        <v>0.04896620833339995</v>
+        <v>0.08788457352383194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H5">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I5">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J5">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>402.5105968896845</v>
+        <v>404.8213771863495</v>
       </c>
       <c r="R5">
-        <v>2415.063581338106</v>
+        <v>2428.928263118097</v>
       </c>
       <c r="S5">
-        <v>0.08027993819516059</v>
+        <v>0.08668167897733091</v>
       </c>
       <c r="T5">
-        <v>0.07041164073117508</v>
+        <v>0.0695292444072262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.16991533333334</v>
+        <v>32.50178966666667</v>
       </c>
       <c r="H6">
-        <v>63.50974600000001</v>
+        <v>97.505369</v>
       </c>
       <c r="I6">
-        <v>0.3077700633440185</v>
+        <v>0.4689023259544835</v>
       </c>
       <c r="J6">
-        <v>0.3697009773073652</v>
+        <v>0.5294103824060522</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>177.8234076488556</v>
+        <v>317.3112023080653</v>
       </c>
       <c r="R6">
-        <v>1600.4106688397</v>
+        <v>2855.800820772588</v>
       </c>
       <c r="S6">
-        <v>0.03546652507043307</v>
+        <v>0.06794371375728347</v>
       </c>
       <c r="T6">
-        <v>0.04666027921891985</v>
+        <v>0.08174867749735604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J7">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N7">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O7">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P7">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q7">
-        <v>51.93473960540911</v>
+        <v>26.00080531295178</v>
       </c>
       <c r="R7">
-        <v>467.412656448682</v>
+        <v>234.007247816566</v>
       </c>
       <c r="S7">
-        <v>0.01035828054695087</v>
+        <v>0.005567377580092287</v>
       </c>
       <c r="T7">
-        <v>0.01362750541782163</v>
+        <v>0.006698570465647913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J8">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P8">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q8">
         <v>423.3598128145649</v>
@@ -948,10 +948,10 @@
         <v>3810.238315331084</v>
       </c>
       <c r="S8">
-        <v>0.08443827285467191</v>
+        <v>0.09065118952303305</v>
       </c>
       <c r="T8">
-        <v>0.1110882270066787</v>
+        <v>0.1090699116557449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J9">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N9">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O9">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P9">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q9">
-        <v>114.2740179913655</v>
+        <v>136.0625453427847</v>
       </c>
       <c r="R9">
-        <v>1028.46616192229</v>
+        <v>1224.562908085062</v>
       </c>
       <c r="S9">
-        <v>0.02279172566523454</v>
+        <v>0.02913415778142727</v>
       </c>
       <c r="T9">
-        <v>0.02998512770306425</v>
+        <v>0.03505370455814496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J10">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N10">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O10">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P10">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q10">
-        <v>246.4828717673304</v>
+        <v>161.467347291201</v>
       </c>
       <c r="R10">
-        <v>1478.897230603982</v>
+        <v>968.8040837472061</v>
       </c>
       <c r="S10">
-        <v>0.04916051866597227</v>
+        <v>0.03457391716933528</v>
       </c>
       <c r="T10">
-        <v>0.04311753168085186</v>
+        <v>0.02773248471122228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.1884672096666258</v>
+        <v>0.1870267208633406</v>
       </c>
       <c r="J11">
-        <v>0.2263914522650009</v>
+        <v>0.2111610080220042</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N11">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O11">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P11">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q11">
-        <v>108.8925969239889</v>
+        <v>126.5629756476027</v>
       </c>
       <c r="R11">
-        <v>980.0333723159</v>
+        <v>1139.066780828424</v>
       </c>
       <c r="S11">
-        <v>0.02171841193379622</v>
+        <v>0.02710007880945268</v>
       </c>
       <c r="T11">
-        <v>0.02857306045658446</v>
+        <v>0.03260633663124415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H12">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I12">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J12">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N12">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O12">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P12">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q12">
-        <v>0.22222226839</v>
+        <v>47.66780389362099</v>
       </c>
       <c r="R12">
-        <v>2.00000041551</v>
+        <v>286.0068233617259</v>
       </c>
       <c r="S12">
-        <v>4.432178956229311E-05</v>
+        <v>0.01020678627047699</v>
       </c>
       <c r="T12">
-        <v>5.831039472719202E-05</v>
+        <v>0.008187083425067356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H13">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I13">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J13">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P13">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q13">
-        <v>1.81150379618</v>
+        <v>776.154134104154</v>
       </c>
       <c r="R13">
-        <v>16.30353416562</v>
+        <v>4656.924804624924</v>
       </c>
       <c r="S13">
-        <v>0.000361300830143079</v>
+        <v>0.1661926649154563</v>
       </c>
       <c r="T13">
-        <v>0.0004753326575700454</v>
+        <v>0.1333067212578675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H14">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I14">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J14">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N14">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O14">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P14">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q14">
-        <v>0.4889642595499999</v>
+        <v>249.446224861197</v>
       </c>
       <c r="R14">
-        <v>4.40067833595</v>
+        <v>1496.677349167182</v>
       </c>
       <c r="S14">
-        <v>9.752294930777874E-05</v>
+        <v>0.05341224254462242</v>
       </c>
       <c r="T14">
-        <v>0.0001283026187628129</v>
+        <v>0.04284311183213597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H15">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I15">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J15">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N15">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O15">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P15">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q15">
-        <v>1.054669442835</v>
+        <v>296.0213636946915</v>
       </c>
       <c r="R15">
-        <v>6.328016657010001</v>
+        <v>1184.085454778766</v>
       </c>
       <c r="S15">
-        <v>0.0002103517232623898</v>
+        <v>0.06338506379420569</v>
       </c>
       <c r="T15">
-        <v>0.0001844945362255872</v>
+        <v>0.03389501791158971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05547</v>
+        <v>23.766591</v>
       </c>
       <c r="H16">
-        <v>0.16641</v>
+        <v>47.533182</v>
       </c>
       <c r="I16">
-        <v>0.0008064276660951866</v>
+        <v>0.3428798818219608</v>
       </c>
       <c r="J16">
-        <v>0.0009687007665519343</v>
+        <v>0.2580838400765036</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N16">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O16">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P16">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q16">
-        <v>0.4659378305</v>
+        <v>232.030471008444</v>
       </c>
       <c r="R16">
-        <v>4.1934404745</v>
+        <v>1392.182826050664</v>
       </c>
       <c r="S16">
-        <v>9.293037381964599E-05</v>
+        <v>0.04968312429719935</v>
       </c>
       <c r="T16">
-        <v>0.0001222605592662967</v>
+        <v>0.03985190564984302</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H17">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I17">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J17">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N17">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O17">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P17">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q17">
-        <v>138.4842244321025</v>
+        <v>0.1655849731408889</v>
       </c>
       <c r="R17">
-        <v>830.9053465926149</v>
+        <v>1.490264758268</v>
       </c>
       <c r="S17">
-        <v>0.02762040320011971</v>
+        <v>3.545559670052048E-05</v>
       </c>
       <c r="T17">
-        <v>0.02422520433746751</v>
+        <v>4.265954832114927E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H18">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I18">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J18">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>97.972082</v>
       </c>
       <c r="O18">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P18">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q18">
-        <v>1128.890907681355</v>
+        <v>2.696148153492445</v>
       </c>
       <c r="R18">
-        <v>6773.345446088129</v>
+        <v>24.265333381432</v>
       </c>
       <c r="S18">
-        <v>0.2251550468435891</v>
+        <v>0.0005773080718728313</v>
       </c>
       <c r="T18">
-        <v>0.1974781822654339</v>
+        <v>0.0006946068852336373</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H19">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I19">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J19">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N19">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O19">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P19">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q19">
-        <v>304.7121998591125</v>
+        <v>0.8665082732973335</v>
       </c>
       <c r="R19">
-        <v>1828.273199154675</v>
+        <v>7.798574459676001</v>
       </c>
       <c r="S19">
-        <v>0.06077424237033272</v>
+        <v>0.000185539589087919</v>
       </c>
       <c r="T19">
-        <v>0.0533036548818268</v>
+        <v>0.0002232379596664938</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H20">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I20">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J20">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N20">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O20">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P20">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q20">
-        <v>657.2477226580913</v>
+        <v>1.028297625498</v>
       </c>
       <c r="R20">
-        <v>2628.990890632365</v>
+        <v>6.169785752988001</v>
       </c>
       <c r="S20">
-        <v>0.1310867514088394</v>
+        <v>0.000220182455002959</v>
       </c>
       <c r="T20">
-        <v>0.07664873235932526</v>
+        <v>0.0001766130964316863</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.5677325</v>
+        <v>0.08255866666666667</v>
       </c>
       <c r="H21">
-        <v>69.135465</v>
+        <v>0.247676</v>
       </c>
       <c r="I21">
-        <v>0.5025486901420179</v>
+        <v>0.001191071360215073</v>
       </c>
       <c r="J21">
-        <v>0.4024492394773416</v>
+        <v>0.001344769495439799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N21">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O21">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P21">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q21">
-        <v>290.362615582375</v>
+        <v>0.8060106858613333</v>
       </c>
       <c r="R21">
-        <v>1742.17569349425</v>
+        <v>7.254096172752</v>
       </c>
       <c r="S21">
-        <v>0.05791224631913694</v>
+        <v>0.0001725856475508435</v>
       </c>
       <c r="T21">
-        <v>0.05079346563328815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J22">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.006170333333333</v>
-      </c>
-      <c r="N22">
-        <v>12.018511</v>
-      </c>
-      <c r="O22">
-        <v>0.0549606510611227</v>
-      </c>
-      <c r="P22">
-        <v>0.06019443438116229</v>
-      </c>
-      <c r="Q22">
-        <v>0.1123223330257778</v>
-      </c>
-      <c r="R22">
-        <v>1.010900997232</v>
-      </c>
-      <c r="S22">
-        <v>2.240246597959016E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.947301196618939E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J23">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>32.65736066666667</v>
-      </c>
-      <c r="N23">
-        <v>97.972082</v>
-      </c>
-      <c r="O23">
-        <v>0.4480263330901557</v>
-      </c>
-      <c r="P23">
-        <v>0.490690906813236</v>
-      </c>
-      <c r="Q23">
-        <v>0.9156253067982223</v>
-      </c>
-      <c r="R23">
-        <v>8.240627761184001</v>
-      </c>
-      <c r="S23">
-        <v>0.0001826196468060493</v>
-      </c>
-      <c r="T23">
-        <v>0.0002402570788626385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J24">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>8.814931666666666</v>
-      </c>
-      <c r="N24">
-        <v>26.444795</v>
-      </c>
-      <c r="O24">
-        <v>0.1209320481029574</v>
-      </c>
-      <c r="P24">
-        <v>0.1324481441462082</v>
-      </c>
-      <c r="Q24">
-        <v>0.2471471774488889</v>
-      </c>
-      <c r="R24">
-        <v>2.22432459704</v>
-      </c>
-      <c r="S24">
-        <v>4.929301311324972E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.485060915436407E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J25">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.0133305</v>
-      </c>
-      <c r="N25">
-        <v>38.026661</v>
-      </c>
-      <c r="O25">
-        <v>0.2608438823545533</v>
-      </c>
-      <c r="P25">
-        <v>0.1904556521435312</v>
-      </c>
-      <c r="Q25">
-        <v>0.5330830850053334</v>
-      </c>
-      <c r="R25">
-        <v>3.198498510032</v>
-      </c>
-      <c r="S25">
-        <v>0.0001063223613187076</v>
-      </c>
-      <c r="T25">
-        <v>9.325283595340782E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02803733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.08411200000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0004076091812427038</v>
-      </c>
-      <c r="J26">
-        <v>0.0004896301837402578</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>8.399816666666668</v>
-      </c>
-      <c r="N26">
-        <v>25.19945</v>
-      </c>
-      <c r="O26">
-        <v>0.115237085391211</v>
-      </c>
-      <c r="P26">
-        <v>0.1262108625158624</v>
-      </c>
-      <c r="Q26">
-        <v>0.2355084598222223</v>
-      </c>
-      <c r="R26">
-        <v>2.1195761384</v>
-      </c>
-      <c r="S26">
-        <v>4.697169402510705E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.179664780365813E-05</v>
+        <v>0.0002076520057868316</v>
       </c>
     </row>
   </sheetData>
